--- a/xuexibiji/cuoma/错误码表.xlsx
+++ b/xuexibiji/cuoma/错误码表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12735"/>
+    <workbookView windowWidth="24180" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
   <si>
     <t>错误码</t>
   </si>
@@ -172,6 +172,12 @@
     <t>减量大于持有数</t>
   </si>
   <si>
+    <t>读取数据为空</t>
+  </si>
+  <si>
+    <t>服务端数据库无数据</t>
+  </si>
+  <si>
     <t>获取大厅入口数据失败</t>
   </si>
   <si>
@@ -245,6 +251,24 @@
   </si>
   <si>
     <t>不能结束一个不在进行中的你演我猜</t>
+  </si>
+  <si>
+    <t>linkcall：服务端接收错误数据</t>
+  </si>
+  <si>
+    <t>连麦：主播当前和需要设置的运行状态一致</t>
+  </si>
+  <si>
+    <t>服务端app数据处理异常</t>
+  </si>
+  <si>
+    <t>连麦：主播未开启连麦状态</t>
+  </si>
+  <si>
+    <t>连麦：用户已经不在申请列表，请核对</t>
+  </si>
+  <si>
+    <t>连麦：用户登记连麦申请状态异常</t>
   </si>
 </sst>
 </file>
@@ -275,21 +299,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -297,25 +306,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -326,16 +319,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,8 +342,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,14 +367,20 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -389,7 +397,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,8 +411,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -431,115 +455,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,42 +612,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,24 +664,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -673,17 +679,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -718,7 +718,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -737,16 +746,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -755,131 +779,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -963,7 +987,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="E0FEFE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1213,16 +1237,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9.875" customWidth="1"/>
-    <col min="2" max="2" width="33.1416666666667" customWidth="1"/>
+    <col min="2" max="2" width="43.2583333333333" customWidth="1"/>
     <col min="3" max="3" width="20.75" customWidth="1"/>
     <col min="4" max="4" width="33.8" customWidth="1"/>
     <col min="5" max="5" width="33.125" customWidth="1"/>
@@ -1711,21 +1735,21 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>400000001</v>
+        <v>200000099</v>
       </c>
       <c r="B34" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>30</v>
+      <c r="C34" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>401000001</v>
+        <v>400000001</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>30</v>
@@ -1733,10 +1757,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>403040001</v>
+        <v>401000001</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>30</v>
@@ -1744,10 +1768,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>403040002</v>
+        <v>403040001</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>30</v>
@@ -1755,10 +1779,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>403040003</v>
+        <v>403040002</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>30</v>
@@ -1766,10 +1790,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>403040010</v>
+        <v>403040003</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>30</v>
@@ -1777,10 +1801,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>403040020</v>
+        <v>403040010</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>30</v>
@@ -1788,10 +1812,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>403060001</v>
+        <v>403040020</v>
       </c>
       <c r="B41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>30</v>
@@ -1799,10 +1823,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>403060002</v>
+        <v>403060001</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>30</v>
@@ -1810,10 +1834,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>403060003</v>
+        <v>403060002</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>30</v>
@@ -1821,10 +1845,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>403060004</v>
+        <v>403060003</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>30</v>
@@ -1832,10 +1856,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>403060005</v>
+        <v>403060004</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>30</v>
@@ -1843,10 +1867,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>403060006</v>
+        <v>403060005</v>
       </c>
       <c r="B46" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>30</v>
@@ -1854,10 +1878,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>403060007</v>
+        <v>403060006</v>
       </c>
       <c r="B47" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>30</v>
@@ -1865,10 +1889,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>403060010</v>
+        <v>403060007</v>
       </c>
       <c r="B48" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>30</v>
@@ -1876,10 +1900,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>403060011</v>
+        <v>403060010</v>
       </c>
       <c r="B49" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>30</v>
@@ -1887,10 +1911,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>403060012</v>
+        <v>403060011</v>
       </c>
       <c r="B50" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>30</v>
@@ -1898,10 +1922,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>403060020</v>
+        <v>403060012</v>
       </c>
       <c r="B51" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>30</v>
@@ -1909,10 +1933,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>403060021</v>
+        <v>403060020</v>
       </c>
       <c r="B52" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>30</v>
@@ -1920,10 +1944,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>403060022</v>
+        <v>403060021</v>
       </c>
       <c r="B53" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>30</v>
@@ -1931,10 +1955,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>403060023</v>
+        <v>403060022</v>
       </c>
       <c r="B54" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>30</v>
@@ -1942,10 +1966,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>403060024</v>
+        <v>403060023</v>
       </c>
       <c r="B55" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>30</v>
@@ -1953,10 +1977,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>403060030</v>
+        <v>403060024</v>
       </c>
       <c r="B56" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>30</v>
@@ -1964,10 +1988,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>403060031</v>
+        <v>403060030</v>
       </c>
       <c r="B57" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>30</v>
@@ -1975,13 +1999,81 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
+        <v>403060031</v>
+      </c>
+      <c r="B58" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
         <v>403060040</v>
       </c>
-      <c r="B58" t="s">
-        <v>76</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>30</v>
+      <c r="B59" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>408010001</v>
+      </c>
+      <c r="B63" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>403300011</v>
+      </c>
+      <c r="B64" t="s">
+        <v>80</v>
+      </c>
+      <c r="C64" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>403300012</v>
+      </c>
+      <c r="B65" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <v>403300013</v>
+      </c>
+      <c r="B66" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <v>403300014</v>
+      </c>
+      <c r="B67" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <v>403300015</v>
+      </c>
+      <c r="B68" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
